--- a/data/login_output.xlsx
+++ b/data/login_output.xlsx
@@ -476,7 +476,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45608.75543279751</v>
+        <v>45608.76966429409</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -509,7 +509,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45608.75546861381</v>
+        <v>45608.7697030417</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -542,7 +542,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45608.75551137417</v>
+        <v>45608.76974155807</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -573,7 +573,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45608.75556349831</v>
+        <v>45608.76979341831</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
@@ -600,7 +600,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45608.75559876944</v>
+        <v>45608.76983042334</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">

--- a/data/login_output.xlsx
+++ b/data/login_output.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45608.76966429409</v>
+        <v>45609.00319617974</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -509,7 +509,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45608.7697030417</v>
+        <v>45609.00323496906</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -542,7 +542,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45608.76974155807</v>
+        <v>45609.00327697924</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -573,7 +573,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45608.76979341831</v>
+        <v>45609.00338337044</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
@@ -600,7 +600,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45608.76983042334</v>
+        <v>45609.00341735204</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
@@ -622,6 +622,37 @@
         </is>
       </c>
       <c r="G6" t="inlineStr">
+        <is>
+          <t>Please check your emal and password</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45609.00345136729</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>abc@gmail.com</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Login Fail</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Login Fail</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>Please check your emal and password</t>
         </is>
